--- a/fund_holding/161810.OF.xlsx
+++ b/fund_holding/161810.OF.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="2018-06-30" sheetId="1" r:id="rId1"/>
     <sheet name="2019-06-30" sheetId="2" r:id="rId2"/>
-    <sheet name="2017-06-30" sheetId="3" r:id="rId3"/>
-    <sheet name="2018-12-31" sheetId="4" r:id="rId4"/>
-    <sheet name="2017-12-31" sheetId="5" r:id="rId5"/>
+    <sheet name="2017-12-31" sheetId="3" r:id="rId3"/>
+    <sheet name="2017-06-30" sheetId="4" r:id="rId4"/>
+    <sheet name="2018-12-31" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -686,6 +686,210 @@
     <t>汽车</t>
   </si>
   <si>
+    <t>601899.SH</t>
+  </si>
+  <si>
+    <t>000807.SZ</t>
+  </si>
+  <si>
+    <t>600362.SH</t>
+  </si>
+  <si>
+    <t>601600.SH</t>
+  </si>
+  <si>
+    <t>000933.SZ</t>
+  </si>
+  <si>
+    <t>601388.SH</t>
+  </si>
+  <si>
+    <t>600497.SH</t>
+  </si>
+  <si>
+    <t>000553.SZ</t>
+  </si>
+  <si>
+    <t>000688.SZ</t>
+  </si>
+  <si>
+    <t>002428.SZ</t>
+  </si>
+  <si>
+    <t>600499.SH</t>
+  </si>
+  <si>
+    <t>000878.SZ</t>
+  </si>
+  <si>
+    <t>300679.SZ</t>
+  </si>
+  <si>
+    <t>000049.SZ</t>
+  </si>
+  <si>
+    <t>300408.SZ</t>
+  </si>
+  <si>
+    <t>600388.SH</t>
+  </si>
+  <si>
+    <t>002055.SZ</t>
+  </si>
+  <si>
+    <t>000717.SZ</t>
+  </si>
+  <si>
+    <t>002366.SZ</t>
+  </si>
+  <si>
+    <t>002573.SZ</t>
+  </si>
+  <si>
+    <t>002504.SZ</t>
+  </si>
+  <si>
+    <t>000661.SZ</t>
+  </si>
+  <si>
+    <t>600285.SH</t>
+  </si>
+  <si>
+    <t>000425.SZ</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>300327.SZ</t>
+  </si>
+  <si>
+    <t>300568.SZ</t>
+  </si>
+  <si>
+    <t>002019.SZ</t>
+  </si>
+  <si>
+    <t>300065.SZ</t>
+  </si>
+  <si>
+    <t>002139.SZ</t>
+  </si>
+  <si>
+    <t>300684.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>云铝股份</t>
+  </si>
+  <si>
+    <t>江西铜业</t>
+  </si>
+  <si>
+    <t>中国铝业</t>
+  </si>
+  <si>
+    <t>神火股份</t>
+  </si>
+  <si>
+    <t>怡球资源</t>
+  </si>
+  <si>
+    <t>驰宏锌锗</t>
+  </si>
+  <si>
+    <t>安道麦A</t>
+  </si>
+  <si>
+    <t>国城矿业</t>
+  </si>
+  <si>
+    <t>云南锗业</t>
+  </si>
+  <si>
+    <t>科达洁能</t>
+  </si>
+  <si>
+    <t>云南铜业</t>
+  </si>
+  <si>
+    <t>电连技术</t>
+  </si>
+  <si>
+    <t>德赛电池</t>
+  </si>
+  <si>
+    <t>三环集团</t>
+  </si>
+  <si>
+    <t>龙净环保</t>
+  </si>
+  <si>
+    <t>得润电子</t>
+  </si>
+  <si>
+    <t>韶钢松山</t>
+  </si>
+  <si>
+    <t>台海核电</t>
+  </si>
+  <si>
+    <t>清新环境</t>
+  </si>
+  <si>
+    <t>弘高创意</t>
+  </si>
+  <si>
+    <t>长春高新</t>
+  </si>
+  <si>
+    <t>羚锐制药</t>
+  </si>
+  <si>
+    <t>徐工机械</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>中颖电子</t>
+  </si>
+  <si>
+    <t>星源材质</t>
+  </si>
+  <si>
+    <t>亿帆医药</t>
+  </si>
+  <si>
+    <t>海兰信</t>
+  </si>
+  <si>
+    <t>拓邦股份</t>
+  </si>
+  <si>
+    <t>中石科技</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>钢铁</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>轻工制造</t>
+  </si>
+  <si>
     <t>600068.SH</t>
   </si>
   <si>
@@ -695,15 +899,9 @@
     <t>600089.SH</t>
   </si>
   <si>
-    <t>000661.SZ</t>
-  </si>
-  <si>
     <t>601668.SH</t>
   </si>
   <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
     <t>600030.SH</t>
   </si>
   <si>
@@ -719,9 +917,6 @@
     <t>002557.SZ</t>
   </si>
   <si>
-    <t>000807.SZ</t>
-  </si>
-  <si>
     <t>601211.SH</t>
   </si>
   <si>
@@ -740,12 +935,6 @@
     <t>002436.SZ</t>
   </si>
   <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>300568.SZ</t>
-  </si>
-  <si>
     <t>603040.SH</t>
   </si>
   <si>
@@ -776,18 +965,9 @@
     <t>601878.SH</t>
   </si>
   <si>
-    <t>002019.SZ</t>
-  </si>
-  <si>
     <t>600594.SH</t>
   </si>
   <si>
-    <t>002139.SZ</t>
-  </si>
-  <si>
-    <t>002504.SZ</t>
-  </si>
-  <si>
     <t>601998.SH</t>
   </si>
   <si>
@@ -842,15 +1022,9 @@
     <t>特变电工</t>
   </si>
   <si>
-    <t>长春高新</t>
-  </si>
-  <si>
     <t>中国建筑</t>
   </si>
   <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
     <t>中信证券</t>
   </si>
   <si>
@@ -866,9 +1040,6 @@
     <t>洽洽食品</t>
   </si>
   <si>
-    <t>云铝股份</t>
-  </si>
-  <si>
     <t>国泰君安</t>
   </si>
   <si>
@@ -887,12 +1058,6 @@
     <t>兴森科技</t>
   </si>
   <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>星源材质</t>
-  </si>
-  <si>
     <t>新坐标</t>
   </si>
   <si>
@@ -923,18 +1088,9 @@
     <t>浙商证券</t>
   </si>
   <si>
-    <t>亿帆医药</t>
-  </si>
-  <si>
     <t>益佰制药</t>
   </si>
   <si>
-    <t>拓邦股份</t>
-  </si>
-  <si>
-    <t>弘高创意</t>
-  </si>
-  <si>
     <t>中信银行</t>
   </si>
   <si>
@@ -983,9 +1139,6 @@
     <t>建筑</t>
   </si>
   <si>
-    <t>轻工制造</t>
-  </si>
-  <si>
     <t>商贸零售</t>
   </si>
   <si>
@@ -1035,159 +1188,6 @@
   </si>
   <si>
     <t>天齐锂业</t>
-  </si>
-  <si>
-    <t>600362.SH</t>
-  </si>
-  <si>
-    <t>601600.SH</t>
-  </si>
-  <si>
-    <t>000933.SZ</t>
-  </si>
-  <si>
-    <t>601388.SH</t>
-  </si>
-  <si>
-    <t>600497.SH</t>
-  </si>
-  <si>
-    <t>000553.SZ</t>
-  </si>
-  <si>
-    <t>000688.SZ</t>
-  </si>
-  <si>
-    <t>002428.SZ</t>
-  </si>
-  <si>
-    <t>600499.SH</t>
-  </si>
-  <si>
-    <t>000878.SZ</t>
-  </si>
-  <si>
-    <t>300679.SZ</t>
-  </si>
-  <si>
-    <t>000049.SZ</t>
-  </si>
-  <si>
-    <t>300408.SZ</t>
-  </si>
-  <si>
-    <t>600388.SH</t>
-  </si>
-  <si>
-    <t>002055.SZ</t>
-  </si>
-  <si>
-    <t>000717.SZ</t>
-  </si>
-  <si>
-    <t>002366.SZ</t>
-  </si>
-  <si>
-    <t>002573.SZ</t>
-  </si>
-  <si>
-    <t>600285.SH</t>
-  </si>
-  <si>
-    <t>000425.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>300327.SZ</t>
-  </si>
-  <si>
-    <t>300065.SZ</t>
-  </si>
-  <si>
-    <t>300684.SZ</t>
-  </si>
-  <si>
-    <t>江西铜业</t>
-  </si>
-  <si>
-    <t>中国铝业</t>
-  </si>
-  <si>
-    <t>神火股份</t>
-  </si>
-  <si>
-    <t>怡球资源</t>
-  </si>
-  <si>
-    <t>驰宏锌锗</t>
-  </si>
-  <si>
-    <t>安道麦A</t>
-  </si>
-  <si>
-    <t>国城矿业</t>
-  </si>
-  <si>
-    <t>云南锗业</t>
-  </si>
-  <si>
-    <t>科达洁能</t>
-  </si>
-  <si>
-    <t>云南铜业</t>
-  </si>
-  <si>
-    <t>电连技术</t>
-  </si>
-  <si>
-    <t>德赛电池</t>
-  </si>
-  <si>
-    <t>三环集团</t>
-  </si>
-  <si>
-    <t>龙净环保</t>
-  </si>
-  <si>
-    <t>得润电子</t>
-  </si>
-  <si>
-    <t>韶钢松山</t>
-  </si>
-  <si>
-    <t>台海核电</t>
-  </si>
-  <si>
-    <t>清新环境</t>
-  </si>
-  <si>
-    <t>羚锐制药</t>
-  </si>
-  <si>
-    <t>徐工机械</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>中颖电子</t>
-  </si>
-  <si>
-    <t>海兰信</t>
-  </si>
-  <si>
-    <t>中石科技</t>
-  </si>
-  <si>
-    <t>钢铁</t>
-  </si>
-  <si>
-    <t>综合</t>
-  </si>
-  <si>
-    <t>国防军工</t>
   </si>
 </sst>
 </file>
@@ -5300,6 +5300,1897 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>1353400</v>
+      </c>
+      <c r="D2">
+        <v>34836516</v>
+      </c>
+      <c r="E2">
+        <v>8.06</v>
+      </c>
+      <c r="F2">
+        <v>7.56</v>
+      </c>
+      <c r="G2">
+        <v>0.13</v>
+      </c>
+      <c r="H2">
+        <v>20.85</v>
+      </c>
+      <c r="I2">
+        <v>19.78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3">
+        <v>6600000</v>
+      </c>
+      <c r="D3">
+        <v>30294000</v>
+      </c>
+      <c r="E3">
+        <v>7.01</v>
+      </c>
+      <c r="F3">
+        <v>6.58</v>
+      </c>
+      <c r="G3">
+        <v>0.04</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>35.99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>600000</v>
+      </c>
+      <c r="D4">
+        <v>27630000</v>
+      </c>
+      <c r="E4">
+        <v>6.39</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>-9.09</v>
+      </c>
+      <c r="I4">
+        <v>20.12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>1406600</v>
+      </c>
+      <c r="D5">
+        <v>24896820</v>
+      </c>
+      <c r="E5">
+        <v>5.76</v>
+      </c>
+      <c r="F5">
+        <v>5.4</v>
+      </c>
+      <c r="G5">
+        <v>0.31</v>
+      </c>
+      <c r="I5">
+        <v>29.59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>1142800</v>
+      </c>
+      <c r="D6">
+        <v>21713200</v>
+      </c>
+      <c r="E6">
+        <v>5.02</v>
+      </c>
+      <c r="F6">
+        <v>4.71</v>
+      </c>
+      <c r="G6">
+        <v>0.12</v>
+      </c>
+      <c r="I6">
+        <v>44.23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>420000</v>
+      </c>
+      <c r="D7">
+        <v>21340200</v>
+      </c>
+      <c r="E7">
+        <v>4.93</v>
+      </c>
+      <c r="F7">
+        <v>4.63</v>
+      </c>
+      <c r="G7">
+        <v>0.19</v>
+      </c>
+      <c r="H7">
+        <v>-18.71</v>
+      </c>
+      <c r="I7">
+        <v>2.83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>2060000</v>
+      </c>
+      <c r="D8">
+        <v>21073800</v>
+      </c>
+      <c r="E8">
+        <v>4.87</v>
+      </c>
+      <c r="F8">
+        <v>4.57</v>
+      </c>
+      <c r="G8">
+        <v>0.09</v>
+      </c>
+      <c r="H8">
+        <v>9.23</v>
+      </c>
+      <c r="I8">
+        <v>41.69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>1040800</v>
+      </c>
+      <c r="D9">
+        <v>20992936</v>
+      </c>
+      <c r="E9">
+        <v>4.85</v>
+      </c>
+      <c r="F9">
+        <v>4.56</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <v>20.7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>630000</v>
+      </c>
+      <c r="D10">
+        <v>20871900</v>
+      </c>
+      <c r="E10">
+        <v>4.83</v>
+      </c>
+      <c r="F10">
+        <v>4.53</v>
+      </c>
+      <c r="G10">
+        <v>0.33</v>
+      </c>
+      <c r="H10">
+        <v>70.27</v>
+      </c>
+      <c r="I10">
+        <v>29.01</v>
+      </c>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11">
+        <v>3092216</v>
+      </c>
+      <c r="D11">
+        <v>20625080.72</v>
+      </c>
+      <c r="E11">
+        <v>4.77</v>
+      </c>
+      <c r="F11">
+        <v>4.48</v>
+      </c>
+      <c r="G11">
+        <v>0.03</v>
+      </c>
+      <c r="I11">
+        <v>78.98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12">
+        <v>2000000</v>
+      </c>
+      <c r="D12">
+        <v>20300000</v>
+      </c>
+      <c r="E12">
+        <v>4.69</v>
+      </c>
+      <c r="F12">
+        <v>4.41</v>
+      </c>
+      <c r="G12">
+        <v>0.11</v>
+      </c>
+      <c r="I12">
+        <v>39.23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13">
+        <v>4657000</v>
+      </c>
+      <c r="D13">
+        <v>20164810</v>
+      </c>
+      <c r="E13">
+        <v>4.66</v>
+      </c>
+      <c r="F13">
+        <v>4.38</v>
+      </c>
+      <c r="G13">
+        <v>0.23</v>
+      </c>
+      <c r="I13">
+        <v>22.32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>800000</v>
+      </c>
+      <c r="D14">
+        <v>19160000</v>
+      </c>
+      <c r="E14">
+        <v>4.43</v>
+      </c>
+      <c r="F14">
+        <v>4.16</v>
+      </c>
+      <c r="G14">
+        <v>0.43</v>
+      </c>
+      <c r="H14">
+        <v>15.94</v>
+      </c>
+      <c r="I14">
+        <v>2.54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>2729100</v>
+      </c>
+      <c r="D15">
+        <v>18776208</v>
+      </c>
+      <c r="E15">
+        <v>4.34</v>
+      </c>
+      <c r="F15">
+        <v>4.08</v>
+      </c>
+      <c r="G15">
+        <v>0.02</v>
+      </c>
+      <c r="I15">
+        <v>35.97</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16">
+        <v>2630000</v>
+      </c>
+      <c r="D16">
+        <v>18673000</v>
+      </c>
+      <c r="E16">
+        <v>4.32</v>
+      </c>
+      <c r="F16">
+        <v>4.05</v>
+      </c>
+      <c r="G16">
+        <v>0.06</v>
+      </c>
+      <c r="I16">
+        <v>8.4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17">
+        <v>1437300</v>
+      </c>
+      <c r="D17">
+        <v>17951877</v>
+      </c>
+      <c r="E17">
+        <v>4.15</v>
+      </c>
+      <c r="F17">
+        <v>3.9</v>
+      </c>
+      <c r="G17">
+        <v>0.17</v>
+      </c>
+      <c r="I17">
+        <v>-8.83</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>1220000</v>
+      </c>
+      <c r="D18">
+        <v>17568000</v>
+      </c>
+      <c r="E18">
+        <v>4.06</v>
+      </c>
+      <c r="F18">
+        <v>3.81</v>
+      </c>
+      <c r="G18">
+        <v>0.13</v>
+      </c>
+      <c r="H18">
+        <v>-21.29</v>
+      </c>
+      <c r="I18">
+        <v>-3.16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19">
+        <v>1300000</v>
+      </c>
+      <c r="D19">
+        <v>14820000</v>
+      </c>
+      <c r="E19">
+        <v>3.43</v>
+      </c>
+      <c r="F19">
+        <v>3.22</v>
+      </c>
+      <c r="G19">
+        <v>0.63</v>
+      </c>
+      <c r="I19">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20">
+        <v>700000</v>
+      </c>
+      <c r="D20">
+        <v>11095000</v>
+      </c>
+      <c r="E20">
+        <v>2.57</v>
+      </c>
+      <c r="F20">
+        <v>2.41</v>
+      </c>
+      <c r="G20">
+        <v>0.29</v>
+      </c>
+      <c r="I20">
+        <v>14.52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21">
+        <v>329000</v>
+      </c>
+      <c r="D21">
+        <v>7649250</v>
+      </c>
+      <c r="E21">
+        <v>1.77</v>
+      </c>
+      <c r="F21">
+        <v>1.66</v>
+      </c>
+      <c r="G21">
+        <v>0.19</v>
+      </c>
+      <c r="I21">
+        <v>12.59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <v>88300</v>
+      </c>
+      <c r="D22">
+        <v>7084309</v>
+      </c>
+      <c r="E22">
+        <v>1.64</v>
+      </c>
+      <c r="F22">
+        <v>1.54</v>
+      </c>
+      <c r="G22">
+        <v>0.03</v>
+      </c>
+      <c r="I22">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23">
+        <v>390000</v>
+      </c>
+      <c r="D23">
+        <v>3946800</v>
+      </c>
+      <c r="E23">
+        <v>0.91</v>
+      </c>
+      <c r="F23">
+        <v>0.86</v>
+      </c>
+      <c r="G23">
+        <v>0.03</v>
+      </c>
+      <c r="I23">
+        <v>36.87</v>
+      </c>
+      <c r="J23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24">
+        <v>235100</v>
+      </c>
+      <c r="D24">
+        <v>2837657</v>
+      </c>
+      <c r="E24">
+        <v>0.66</v>
+      </c>
+      <c r="F24">
+        <v>0.62</v>
+      </c>
+      <c r="G24">
+        <v>0.04</v>
+      </c>
+      <c r="I24">
+        <v>13.01</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25">
+        <v>185700</v>
+      </c>
+      <c r="D25">
+        <v>2059413</v>
+      </c>
+      <c r="E25">
+        <v>0.48</v>
+      </c>
+      <c r="F25">
+        <v>0.45</v>
+      </c>
+      <c r="G25">
+        <v>0.01</v>
+      </c>
+      <c r="I25">
+        <v>39.67</v>
+      </c>
+      <c r="J25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>40000</v>
+      </c>
+      <c r="D26">
+        <v>1159600</v>
+      </c>
+      <c r="E26">
+        <v>0.27</v>
+      </c>
+      <c r="F26">
+        <v>0.25</v>
+      </c>
+      <c r="G26">
+        <v>0.03</v>
+      </c>
+      <c r="I26">
+        <v>20.89</v>
+      </c>
+      <c r="J26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27">
+        <v>81000</v>
+      </c>
+      <c r="D27">
+        <v>1149390</v>
+      </c>
+      <c r="E27">
+        <v>0.27</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27">
+        <v>0.01</v>
+      </c>
+      <c r="I27">
+        <v>7.58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>921200</v>
+      </c>
+      <c r="E28">
+        <v>0.21</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+      <c r="G28">
+        <v>0.03</v>
+      </c>
+      <c r="I28">
+        <v>-4.71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29">
+        <v>6000</v>
+      </c>
+      <c r="D29">
+        <v>359100</v>
+      </c>
+      <c r="E29">
+        <v>0.08</v>
+      </c>
+      <c r="F29">
+        <v>0.08</v>
+      </c>
+      <c r="G29">
+        <v>0.03</v>
+      </c>
+      <c r="I29">
+        <v>-2.21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>308200</v>
+      </c>
+      <c r="E30">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.06</v>
+      </c>
+      <c r="J30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31">
+        <v>6000</v>
+      </c>
+      <c r="D31">
+        <v>237540</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
+      </c>
+      <c r="F31">
+        <v>0.05</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>-23.59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>201600</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+      <c r="F32">
+        <v>0.04</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>-3.95</v>
+      </c>
+      <c r="J32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <v>178100</v>
+      </c>
+      <c r="E33">
+        <v>0.04</v>
+      </c>
+      <c r="F33">
+        <v>0.04</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>22.19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>173000</v>
+      </c>
+      <c r="E34">
+        <v>0.04</v>
+      </c>
+      <c r="F34">
+        <v>0.04</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>12.91</v>
+      </c>
+      <c r="J34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35">
+        <v>5000</v>
+      </c>
+      <c r="D35">
+        <v>102150</v>
+      </c>
+      <c r="E35">
+        <v>0.02</v>
+      </c>
+      <c r="F35">
+        <v>0.02</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>-10.12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>101790</v>
+      </c>
+      <c r="E36">
+        <v>0.02</v>
+      </c>
+      <c r="F36">
+        <v>0.02</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>-90</v>
+      </c>
+      <c r="I36">
+        <v>9.44</v>
+      </c>
+      <c r="J36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37">
+        <v>10000</v>
+      </c>
+      <c r="D37">
+        <v>88600</v>
+      </c>
+      <c r="E37">
+        <v>0.02</v>
+      </c>
+      <c r="F37">
+        <v>0.02</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>81.93000000000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38">
+        <v>83600</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>-3.13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>79880</v>
+      </c>
+      <c r="E39">
+        <v>0.02</v>
+      </c>
+      <c r="F39">
+        <v>0.02</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>-90</v>
+      </c>
+      <c r="I39">
+        <v>43.51</v>
+      </c>
+      <c r="J39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40">
+        <v>3000</v>
+      </c>
+      <c r="D40">
+        <v>79350</v>
+      </c>
+      <c r="E40">
+        <v>0.02</v>
+      </c>
+      <c r="F40">
+        <v>0.02</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41">
+        <v>10000</v>
+      </c>
+      <c r="D41">
+        <v>69500</v>
+      </c>
+      <c r="E41">
+        <v>0.02</v>
+      </c>
+      <c r="F41">
+        <v>0.02</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>-99.12</v>
+      </c>
+      <c r="I41">
+        <v>-5.32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42">
+        <v>3000</v>
+      </c>
+      <c r="D42">
+        <v>68190</v>
+      </c>
+      <c r="E42">
+        <v>0.02</v>
+      </c>
+      <c r="F42">
+        <v>0.01</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>21.43</v>
+      </c>
+      <c r="J42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>66000</v>
+      </c>
+      <c r="E43">
+        <v>0.02</v>
+      </c>
+      <c r="F43">
+        <v>0.01</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>-90</v>
+      </c>
+      <c r="I43">
+        <v>30.49</v>
+      </c>
+      <c r="J43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44">
+        <v>10000</v>
+      </c>
+      <c r="D44">
+        <v>62700</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="F44">
+        <v>0.01</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>-22.59</v>
+      </c>
+      <c r="J44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45">
+        <v>3000</v>
+      </c>
+      <c r="D45">
+        <v>58830</v>
+      </c>
+      <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46">
+        <v>3000</v>
+      </c>
+      <c r="D46">
+        <v>58050</v>
+      </c>
+      <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="F46">
+        <v>0.01</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>6.44</v>
+      </c>
+      <c r="J46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47">
+        <v>300</v>
+      </c>
+      <c r="D47">
+        <v>54900</v>
+      </c>
+      <c r="E47">
+        <v>0.01</v>
+      </c>
+      <c r="F47">
+        <v>0.01</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>-99.84999999999999</v>
+      </c>
+      <c r="I47">
+        <v>41.74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>53770</v>
+      </c>
+      <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="F48">
+        <v>0.01</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>11.88</v>
+      </c>
+      <c r="J48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49">
+        <v>5500</v>
+      </c>
+      <c r="D49">
+        <v>51150</v>
+      </c>
+      <c r="E49">
+        <v>0.01</v>
+      </c>
+      <c r="F49">
+        <v>0.01</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>-17.19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>46300</v>
+      </c>
+      <c r="E50">
+        <v>0.01</v>
+      </c>
+      <c r="F50">
+        <v>0.01</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>23.47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <v>45990</v>
+      </c>
+      <c r="E51">
+        <v>0.01</v>
+      </c>
+      <c r="F51">
+        <v>0.01</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>11.71</v>
+      </c>
+      <c r="J51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>43700</v>
+      </c>
+      <c r="E52">
+        <v>0.01</v>
+      </c>
+      <c r="F52">
+        <v>0.01</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>11.16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>31120</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>0.01</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>9.17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>26680</v>
+      </c>
+      <c r="E54">
+        <v>0.01</v>
+      </c>
+      <c r="F54">
+        <v>0.01</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>-97.37</v>
+      </c>
+      <c r="I54">
+        <v>-37.15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55">
+        <v>1000</v>
+      </c>
+      <c r="D55">
+        <v>22260</v>
+      </c>
+      <c r="E55">
+        <v>0.01</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>-99.86</v>
+      </c>
+      <c r="I55">
+        <v>-19.53</v>
+      </c>
+      <c r="J55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56">
+        <v>1000</v>
+      </c>
+      <c r="D56">
+        <v>22250</v>
+      </c>
+      <c r="E56">
+        <v>0.01</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>-90</v>
+      </c>
+      <c r="I56">
+        <v>33.39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57">
+        <v>18220</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>-28.91</v>
+      </c>
+      <c r="J57" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58">
+        <v>1000</v>
+      </c>
+      <c r="D58">
+        <v>11830</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>-90</v>
+      </c>
+      <c r="I58">
+        <v>9.84</v>
+      </c>
+      <c r="J58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59">
+        <v>827</v>
+      </c>
+      <c r="D59">
+        <v>11528.38</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>10290</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>-99.5</v>
+      </c>
+      <c r="I60">
+        <v>27.04</v>
+      </c>
+      <c r="J60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61">
+        <v>1000</v>
+      </c>
+      <c r="D61">
+        <v>6060</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>-99.95999999999999</v>
+      </c>
+      <c r="I61">
+        <v>-3.66</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62">
+        <v>1000</v>
+      </c>
+      <c r="D62">
+        <v>5330</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>17.14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>37318043</v>
+      </c>
+      <c r="D63">
+        <v>432428525.1</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>93.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5340,10 +7231,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="C2">
         <v>3800000</v>
@@ -5364,15 +7255,15 @@
         <v>24.69</v>
       </c>
       <c r="J2" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="C3">
         <v>800000</v>
@@ -5401,10 +7292,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="C4">
         <v>2520666</v>
@@ -5430,10 +7321,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C5">
         <v>200000</v>
@@ -5517,10 +7408,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="C8">
         <v>2561500</v>
@@ -5541,7 +7432,7 @@
         <v>11.71</v>
       </c>
       <c r="J8" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5633,10 +7524,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C12">
         <v>6600000</v>
@@ -5662,10 +7553,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="C13">
         <v>1317900</v>
@@ -5691,10 +7582,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="C14">
         <v>1300000</v>
@@ -5720,10 +7611,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="C15">
         <v>1300800</v>
@@ -5749,10 +7640,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="C16">
         <v>1600000</v>
@@ -5778,10 +7669,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="C17">
         <v>1200000</v>
@@ -5894,10 +7785,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C21">
         <v>1886000</v>
@@ -5923,10 +7814,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B22" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C22">
         <v>630700</v>
@@ -5952,10 +7843,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="C23">
         <v>600000</v>
@@ -5981,10 +7872,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="C24">
         <v>2500000</v>
@@ -6068,10 +7959,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="C27">
         <v>500000</v>
@@ -6097,10 +7988,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="C28">
         <v>250000</v>
@@ -6126,10 +8017,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="C29">
         <v>300000</v>
@@ -6155,10 +8046,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C30">
         <v>20000</v>
@@ -6179,15 +8070,15 @@
         <v>31.02</v>
       </c>
       <c r="J30" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C31">
         <v>38000</v>
@@ -6213,10 +8104,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="C32">
         <v>19947</v>
@@ -6271,10 +8162,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C34">
         <v>30000</v>
@@ -6300,10 +8191,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="C35">
         <v>30000</v>
@@ -6329,10 +8220,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -6358,10 +8249,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="C37">
         <v>34100</v>
@@ -6416,10 +8307,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="C39">
         <v>12000</v>
@@ -6474,10 +8365,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C41">
         <v>10000</v>
@@ -6503,10 +8394,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="C42">
         <v>10000</v>
@@ -6532,10 +8423,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -6556,15 +8447,15 @@
         <v>-18.1</v>
       </c>
       <c r="J43" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="C44">
         <v>11049</v>
@@ -6587,10 +8478,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C45">
         <v>10000</v>
@@ -6616,10 +8507,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="C46">
         <v>10000</v>
@@ -6645,10 +8536,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C47">
         <v>10000</v>
@@ -6674,10 +8565,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C48">
         <v>10000</v>
@@ -6703,10 +8594,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="C49">
         <v>10000</v>
@@ -6764,10 +8655,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="C51">
         <v>1406</v>
@@ -6790,10 +8681,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="C52">
         <v>2276</v>
@@ -6816,10 +8707,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="C53">
         <v>1824</v>
@@ -6842,10 +8733,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="C54">
         <v>1298</v>
@@ -6868,10 +8759,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="C55">
         <v>989</v>
@@ -6894,10 +8785,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="C56">
         <v>809</v>
@@ -6920,10 +8811,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="C57">
         <v>2966</v>
@@ -6943,10 +8834,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="C58">
         <v>857</v>
@@ -6966,10 +8857,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="C59">
         <v>841</v>
@@ -6992,10 +8883,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="C60">
         <v>1259</v>
@@ -7015,10 +8906,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="C61">
         <v>890</v>
@@ -7041,10 +8932,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="C62">
         <v>1257</v>
@@ -7064,10 +8955,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="C63">
         <v>999</v>
@@ -7087,10 +8978,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="C64">
         <v>942</v>
@@ -7130,7 +9021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J52"/>
   <sheetViews>
@@ -7204,10 +9095,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="C3">
         <v>420200</v>
@@ -7480,10 +9371,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="C12">
         <v>400000</v>
@@ -7631,10 +9522,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="C17">
         <v>900000</v>
@@ -7655,7 +9546,7 @@
         <v>-18.31</v>
       </c>
       <c r="J17" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7933,10 +9824,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="C27">
         <v>30000</v>
@@ -7994,10 +9885,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="C29">
         <v>30000</v>
@@ -8055,10 +9946,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="C31">
         <v>30000</v>
@@ -8267,10 +10158,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="C38">
         <v>10000</v>
@@ -8328,10 +10219,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="C40">
         <v>1000</v>
@@ -8716,1897 +10607,6 @@
       </c>
       <c r="F52">
         <v>83.83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2">
-        <v>1353400</v>
-      </c>
-      <c r="D2">
-        <v>34836516</v>
-      </c>
-      <c r="E2">
-        <v>8.06</v>
-      </c>
-      <c r="F2">
-        <v>7.56</v>
-      </c>
-      <c r="G2">
-        <v>0.13</v>
-      </c>
-      <c r="H2">
-        <v>20.85</v>
-      </c>
-      <c r="I2">
-        <v>19.78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3">
-        <v>6600000</v>
-      </c>
-      <c r="D3">
-        <v>30294000</v>
-      </c>
-      <c r="E3">
-        <v>7.01</v>
-      </c>
-      <c r="F3">
-        <v>6.58</v>
-      </c>
-      <c r="G3">
-        <v>0.04</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>35.99</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4">
-        <v>600000</v>
-      </c>
-      <c r="D4">
-        <v>27630000</v>
-      </c>
-      <c r="E4">
-        <v>6.39</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-      <c r="H4">
-        <v>-9.09</v>
-      </c>
-      <c r="I4">
-        <v>20.12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>1406600</v>
-      </c>
-      <c r="D5">
-        <v>24896820</v>
-      </c>
-      <c r="E5">
-        <v>5.76</v>
-      </c>
-      <c r="F5">
-        <v>5.4</v>
-      </c>
-      <c r="G5">
-        <v>0.31</v>
-      </c>
-      <c r="I5">
-        <v>29.59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6">
-        <v>1142800</v>
-      </c>
-      <c r="D6">
-        <v>21713200</v>
-      </c>
-      <c r="E6">
-        <v>5.02</v>
-      </c>
-      <c r="F6">
-        <v>4.71</v>
-      </c>
-      <c r="G6">
-        <v>0.12</v>
-      </c>
-      <c r="I6">
-        <v>44.23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7">
-        <v>420000</v>
-      </c>
-      <c r="D7">
-        <v>21340200</v>
-      </c>
-      <c r="E7">
-        <v>4.93</v>
-      </c>
-      <c r="F7">
-        <v>4.63</v>
-      </c>
-      <c r="G7">
-        <v>0.19</v>
-      </c>
-      <c r="H7">
-        <v>-18.71</v>
-      </c>
-      <c r="I7">
-        <v>2.83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8">
-        <v>2060000</v>
-      </c>
-      <c r="D8">
-        <v>21073800</v>
-      </c>
-      <c r="E8">
-        <v>4.87</v>
-      </c>
-      <c r="F8">
-        <v>4.57</v>
-      </c>
-      <c r="G8">
-        <v>0.09</v>
-      </c>
-      <c r="H8">
-        <v>9.23</v>
-      </c>
-      <c r="I8">
-        <v>41.69</v>
-      </c>
-      <c r="J8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9">
-        <v>1040800</v>
-      </c>
-      <c r="D9">
-        <v>20992936</v>
-      </c>
-      <c r="E9">
-        <v>4.85</v>
-      </c>
-      <c r="F9">
-        <v>4.56</v>
-      </c>
-      <c r="G9">
-        <v>0.05</v>
-      </c>
-      <c r="I9">
-        <v>20.7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>630000</v>
-      </c>
-      <c r="D10">
-        <v>20871900</v>
-      </c>
-      <c r="E10">
-        <v>4.83</v>
-      </c>
-      <c r="F10">
-        <v>4.53</v>
-      </c>
-      <c r="G10">
-        <v>0.33</v>
-      </c>
-      <c r="H10">
-        <v>70.27</v>
-      </c>
-      <c r="I10">
-        <v>29.01</v>
-      </c>
-      <c r="J10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11">
-        <v>3092216</v>
-      </c>
-      <c r="D11">
-        <v>20625080.72</v>
-      </c>
-      <c r="E11">
-        <v>4.77</v>
-      </c>
-      <c r="F11">
-        <v>4.48</v>
-      </c>
-      <c r="G11">
-        <v>0.03</v>
-      </c>
-      <c r="I11">
-        <v>78.98</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12">
-        <v>2000000</v>
-      </c>
-      <c r="D12">
-        <v>20300000</v>
-      </c>
-      <c r="E12">
-        <v>4.69</v>
-      </c>
-      <c r="F12">
-        <v>4.41</v>
-      </c>
-      <c r="G12">
-        <v>0.11</v>
-      </c>
-      <c r="I12">
-        <v>39.23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13">
-        <v>4657000</v>
-      </c>
-      <c r="D13">
-        <v>20164810</v>
-      </c>
-      <c r="E13">
-        <v>4.66</v>
-      </c>
-      <c r="F13">
-        <v>4.38</v>
-      </c>
-      <c r="G13">
-        <v>0.23</v>
-      </c>
-      <c r="I13">
-        <v>22.32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>800000</v>
-      </c>
-      <c r="D14">
-        <v>19160000</v>
-      </c>
-      <c r="E14">
-        <v>4.43</v>
-      </c>
-      <c r="F14">
-        <v>4.16</v>
-      </c>
-      <c r="G14">
-        <v>0.43</v>
-      </c>
-      <c r="H14">
-        <v>15.94</v>
-      </c>
-      <c r="I14">
-        <v>2.54</v>
-      </c>
-      <c r="J14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15">
-        <v>2729100</v>
-      </c>
-      <c r="D15">
-        <v>18776208</v>
-      </c>
-      <c r="E15">
-        <v>4.34</v>
-      </c>
-      <c r="F15">
-        <v>4.08</v>
-      </c>
-      <c r="G15">
-        <v>0.02</v>
-      </c>
-      <c r="I15">
-        <v>35.97</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" t="s">
-        <v>367</v>
-      </c>
-      <c r="C16">
-        <v>2630000</v>
-      </c>
-      <c r="D16">
-        <v>18673000</v>
-      </c>
-      <c r="E16">
-        <v>4.32</v>
-      </c>
-      <c r="F16">
-        <v>4.05</v>
-      </c>
-      <c r="G16">
-        <v>0.06</v>
-      </c>
-      <c r="I16">
-        <v>8.4</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17">
-        <v>1437300</v>
-      </c>
-      <c r="D17">
-        <v>17951877</v>
-      </c>
-      <c r="E17">
-        <v>4.15</v>
-      </c>
-      <c r="F17">
-        <v>3.9</v>
-      </c>
-      <c r="G17">
-        <v>0.17</v>
-      </c>
-      <c r="I17">
-        <v>-8.83</v>
-      </c>
-      <c r="J17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>1220000</v>
-      </c>
-      <c r="D18">
-        <v>17568000</v>
-      </c>
-      <c r="E18">
-        <v>4.06</v>
-      </c>
-      <c r="F18">
-        <v>3.81</v>
-      </c>
-      <c r="G18">
-        <v>0.13</v>
-      </c>
-      <c r="H18">
-        <v>-21.29</v>
-      </c>
-      <c r="I18">
-        <v>-3.16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19">
-        <v>1300000</v>
-      </c>
-      <c r="D19">
-        <v>14820000</v>
-      </c>
-      <c r="E19">
-        <v>3.43</v>
-      </c>
-      <c r="F19">
-        <v>3.22</v>
-      </c>
-      <c r="G19">
-        <v>0.63</v>
-      </c>
-      <c r="I19">
-        <v>-8.359999999999999</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>344</v>
-      </c>
-      <c r="B20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20">
-        <v>700000</v>
-      </c>
-      <c r="D20">
-        <v>11095000</v>
-      </c>
-      <c r="E20">
-        <v>2.57</v>
-      </c>
-      <c r="F20">
-        <v>2.41</v>
-      </c>
-      <c r="G20">
-        <v>0.29</v>
-      </c>
-      <c r="I20">
-        <v>14.52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21">
-        <v>329000</v>
-      </c>
-      <c r="D21">
-        <v>7649250</v>
-      </c>
-      <c r="E21">
-        <v>1.77</v>
-      </c>
-      <c r="F21">
-        <v>1.66</v>
-      </c>
-      <c r="G21">
-        <v>0.19</v>
-      </c>
-      <c r="I21">
-        <v>12.59</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22">
-        <v>88300</v>
-      </c>
-      <c r="D22">
-        <v>7084309</v>
-      </c>
-      <c r="E22">
-        <v>1.64</v>
-      </c>
-      <c r="F22">
-        <v>1.54</v>
-      </c>
-      <c r="G22">
-        <v>0.03</v>
-      </c>
-      <c r="I22">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" t="s">
-        <v>369</v>
-      </c>
-      <c r="C23">
-        <v>390000</v>
-      </c>
-      <c r="D23">
-        <v>3946800</v>
-      </c>
-      <c r="E23">
-        <v>0.91</v>
-      </c>
-      <c r="F23">
-        <v>0.86</v>
-      </c>
-      <c r="G23">
-        <v>0.03</v>
-      </c>
-      <c r="I23">
-        <v>36.87</v>
-      </c>
-      <c r="J23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" t="s">
-        <v>370</v>
-      </c>
-      <c r="C24">
-        <v>235100</v>
-      </c>
-      <c r="D24">
-        <v>2837657</v>
-      </c>
-      <c r="E24">
-        <v>0.66</v>
-      </c>
-      <c r="F24">
-        <v>0.62</v>
-      </c>
-      <c r="G24">
-        <v>0.04</v>
-      </c>
-      <c r="I24">
-        <v>13.01</v>
-      </c>
-      <c r="J24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>347</v>
-      </c>
-      <c r="B25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C25">
-        <v>185700</v>
-      </c>
-      <c r="D25">
-        <v>2059413</v>
-      </c>
-      <c r="E25">
-        <v>0.48</v>
-      </c>
-      <c r="F25">
-        <v>0.45</v>
-      </c>
-      <c r="G25">
-        <v>0.01</v>
-      </c>
-      <c r="I25">
-        <v>39.67</v>
-      </c>
-      <c r="J25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26">
-        <v>40000</v>
-      </c>
-      <c r="D26">
-        <v>1159600</v>
-      </c>
-      <c r="E26">
-        <v>0.27</v>
-      </c>
-      <c r="F26">
-        <v>0.25</v>
-      </c>
-      <c r="G26">
-        <v>0.03</v>
-      </c>
-      <c r="I26">
-        <v>20.89</v>
-      </c>
-      <c r="J26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C27">
-        <v>81000</v>
-      </c>
-      <c r="D27">
-        <v>1149390</v>
-      </c>
-      <c r="E27">
-        <v>0.27</v>
-      </c>
-      <c r="F27">
-        <v>0.25</v>
-      </c>
-      <c r="G27">
-        <v>0.01</v>
-      </c>
-      <c r="I27">
-        <v>7.58</v>
-      </c>
-      <c r="J27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" t="s">
-        <v>373</v>
-      </c>
-      <c r="C28">
-        <v>10000</v>
-      </c>
-      <c r="D28">
-        <v>921200</v>
-      </c>
-      <c r="E28">
-        <v>0.21</v>
-      </c>
-      <c r="F28">
-        <v>0.2</v>
-      </c>
-      <c r="G28">
-        <v>0.03</v>
-      </c>
-      <c r="I28">
-        <v>-4.71</v>
-      </c>
-      <c r="J28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29">
-        <v>6000</v>
-      </c>
-      <c r="D29">
-        <v>359100</v>
-      </c>
-      <c r="E29">
-        <v>0.08</v>
-      </c>
-      <c r="F29">
-        <v>0.08</v>
-      </c>
-      <c r="G29">
-        <v>0.03</v>
-      </c>
-      <c r="I29">
-        <v>-2.21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30">
-        <v>10000</v>
-      </c>
-      <c r="D30">
-        <v>308200</v>
-      </c>
-      <c r="E30">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0.06</v>
-      </c>
-      <c r="J30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" t="s">
-        <v>374</v>
-      </c>
-      <c r="C31">
-        <v>6000</v>
-      </c>
-      <c r="D31">
-        <v>237540</v>
-      </c>
-      <c r="E31">
-        <v>0.05</v>
-      </c>
-      <c r="F31">
-        <v>0.05</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>-23.59</v>
-      </c>
-      <c r="J31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>351</v>
-      </c>
-      <c r="B32" t="s">
-        <v>375</v>
-      </c>
-      <c r="C32">
-        <v>10000</v>
-      </c>
-      <c r="D32">
-        <v>201600</v>
-      </c>
-      <c r="E32">
-        <v>0.05</v>
-      </c>
-      <c r="F32">
-        <v>0.04</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>-3.95</v>
-      </c>
-      <c r="J32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33">
-        <v>10000</v>
-      </c>
-      <c r="D33">
-        <v>178100</v>
-      </c>
-      <c r="E33">
-        <v>0.04</v>
-      </c>
-      <c r="F33">
-        <v>0.04</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>22.19</v>
-      </c>
-      <c r="J33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>352</v>
-      </c>
-      <c r="B34" t="s">
-        <v>376</v>
-      </c>
-      <c r="C34">
-        <v>10000</v>
-      </c>
-      <c r="D34">
-        <v>173000</v>
-      </c>
-      <c r="E34">
-        <v>0.04</v>
-      </c>
-      <c r="F34">
-        <v>0.04</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>12.91</v>
-      </c>
-      <c r="J34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>353</v>
-      </c>
-      <c r="B35" t="s">
-        <v>377</v>
-      </c>
-      <c r="C35">
-        <v>5000</v>
-      </c>
-      <c r="D35">
-        <v>102150</v>
-      </c>
-      <c r="E35">
-        <v>0.02</v>
-      </c>
-      <c r="F35">
-        <v>0.02</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>-10.12</v>
-      </c>
-      <c r="J35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36">
-        <v>1000</v>
-      </c>
-      <c r="D36">
-        <v>101790</v>
-      </c>
-      <c r="E36">
-        <v>0.02</v>
-      </c>
-      <c r="F36">
-        <v>0.02</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>-90</v>
-      </c>
-      <c r="I36">
-        <v>9.44</v>
-      </c>
-      <c r="J36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>354</v>
-      </c>
-      <c r="B37" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37">
-        <v>10000</v>
-      </c>
-      <c r="D37">
-        <v>88600</v>
-      </c>
-      <c r="E37">
-        <v>0.02</v>
-      </c>
-      <c r="F37">
-        <v>0.02</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>81.93000000000001</v>
-      </c>
-      <c r="J37" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38">
-        <v>10000</v>
-      </c>
-      <c r="D38">
-        <v>83600</v>
-      </c>
-      <c r="E38">
-        <v>0.02</v>
-      </c>
-      <c r="F38">
-        <v>0.02</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>-3.13</v>
-      </c>
-      <c r="J38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39">
-        <v>1000</v>
-      </c>
-      <c r="D39">
-        <v>79880</v>
-      </c>
-      <c r="E39">
-        <v>0.02</v>
-      </c>
-      <c r="F39">
-        <v>0.02</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>-90</v>
-      </c>
-      <c r="I39">
-        <v>43.51</v>
-      </c>
-      <c r="J39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>355</v>
-      </c>
-      <c r="B40" t="s">
-        <v>379</v>
-      </c>
-      <c r="C40">
-        <v>3000</v>
-      </c>
-      <c r="D40">
-        <v>79350</v>
-      </c>
-      <c r="E40">
-        <v>0.02</v>
-      </c>
-      <c r="F40">
-        <v>0.02</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41">
-        <v>10000</v>
-      </c>
-      <c r="D41">
-        <v>69500</v>
-      </c>
-      <c r="E41">
-        <v>0.02</v>
-      </c>
-      <c r="F41">
-        <v>0.02</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>-99.12</v>
-      </c>
-      <c r="I41">
-        <v>-5.32</v>
-      </c>
-      <c r="J41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>356</v>
-      </c>
-      <c r="B42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C42">
-        <v>3000</v>
-      </c>
-      <c r="D42">
-        <v>68190</v>
-      </c>
-      <c r="E42">
-        <v>0.02</v>
-      </c>
-      <c r="F42">
-        <v>0.01</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>21.43</v>
-      </c>
-      <c r="J42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43">
-        <v>1000</v>
-      </c>
-      <c r="D43">
-        <v>66000</v>
-      </c>
-      <c r="E43">
-        <v>0.02</v>
-      </c>
-      <c r="F43">
-        <v>0.01</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>-90</v>
-      </c>
-      <c r="I43">
-        <v>30.49</v>
-      </c>
-      <c r="J43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C44">
-        <v>10000</v>
-      </c>
-      <c r="D44">
-        <v>62700</v>
-      </c>
-      <c r="E44">
-        <v>0.01</v>
-      </c>
-      <c r="F44">
-        <v>0.01</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>-22.59</v>
-      </c>
-      <c r="J44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45">
-        <v>3000</v>
-      </c>
-      <c r="D45">
-        <v>58830</v>
-      </c>
-      <c r="E45">
-        <v>0.01</v>
-      </c>
-      <c r="F45">
-        <v>0.01</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="J45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46">
-        <v>3000</v>
-      </c>
-      <c r="D46">
-        <v>58050</v>
-      </c>
-      <c r="E46">
-        <v>0.01</v>
-      </c>
-      <c r="F46">
-        <v>0.01</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>6.44</v>
-      </c>
-      <c r="J46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47">
-        <v>300</v>
-      </c>
-      <c r="D47">
-        <v>54900</v>
-      </c>
-      <c r="E47">
-        <v>0.01</v>
-      </c>
-      <c r="F47">
-        <v>0.01</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>-99.84999999999999</v>
-      </c>
-      <c r="I47">
-        <v>41.74</v>
-      </c>
-      <c r="J47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48">
-        <v>1000</v>
-      </c>
-      <c r="D48">
-        <v>53770</v>
-      </c>
-      <c r="E48">
-        <v>0.01</v>
-      </c>
-      <c r="F48">
-        <v>0.01</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>11.88</v>
-      </c>
-      <c r="J48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>357</v>
-      </c>
-      <c r="B49" t="s">
-        <v>381</v>
-      </c>
-      <c r="C49">
-        <v>5500</v>
-      </c>
-      <c r="D49">
-        <v>51150</v>
-      </c>
-      <c r="E49">
-        <v>0.01</v>
-      </c>
-      <c r="F49">
-        <v>0.01</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>-17.19</v>
-      </c>
-      <c r="J49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" t="s">
-        <v>382</v>
-      </c>
-      <c r="C50">
-        <v>10000</v>
-      </c>
-      <c r="D50">
-        <v>46300</v>
-      </c>
-      <c r="E50">
-        <v>0.01</v>
-      </c>
-      <c r="F50">
-        <v>0.01</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>23.47</v>
-      </c>
-      <c r="J50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51">
-        <v>1000</v>
-      </c>
-      <c r="D51">
-        <v>45990</v>
-      </c>
-      <c r="E51">
-        <v>0.01</v>
-      </c>
-      <c r="F51">
-        <v>0.01</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>11.71</v>
-      </c>
-      <c r="J51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>359</v>
-      </c>
-      <c r="B52" t="s">
-        <v>383</v>
-      </c>
-      <c r="C52">
-        <v>1000</v>
-      </c>
-      <c r="D52">
-        <v>43700</v>
-      </c>
-      <c r="E52">
-        <v>0.01</v>
-      </c>
-      <c r="F52">
-        <v>0.01</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>11.16</v>
-      </c>
-      <c r="J52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>360</v>
-      </c>
-      <c r="B53" t="s">
-        <v>384</v>
-      </c>
-      <c r="C53">
-        <v>1000</v>
-      </c>
-      <c r="D53">
-        <v>31120</v>
-      </c>
-      <c r="E53">
-        <v>0.01</v>
-      </c>
-      <c r="F53">
-        <v>0.01</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>9.17</v>
-      </c>
-      <c r="J53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" t="s">
-        <v>290</v>
-      </c>
-      <c r="C54">
-        <v>1000</v>
-      </c>
-      <c r="D54">
-        <v>26680</v>
-      </c>
-      <c r="E54">
-        <v>0.01</v>
-      </c>
-      <c r="F54">
-        <v>0.01</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>-97.37</v>
-      </c>
-      <c r="I54">
-        <v>-37.15</v>
-      </c>
-      <c r="J54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55">
-        <v>1000</v>
-      </c>
-      <c r="D55">
-        <v>22260</v>
-      </c>
-      <c r="E55">
-        <v>0.01</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>-99.86</v>
-      </c>
-      <c r="I55">
-        <v>-19.53</v>
-      </c>
-      <c r="J55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>252</v>
-      </c>
-      <c r="B56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C56">
-        <v>1000</v>
-      </c>
-      <c r="D56">
-        <v>22250</v>
-      </c>
-      <c r="E56">
-        <v>0.01</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>-90</v>
-      </c>
-      <c r="I56">
-        <v>33.39</v>
-      </c>
-      <c r="J56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>361</v>
-      </c>
-      <c r="B57" t="s">
-        <v>385</v>
-      </c>
-      <c r="C57">
-        <v>1000</v>
-      </c>
-      <c r="D57">
-        <v>18220</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>-28.91</v>
-      </c>
-      <c r="J57" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>254</v>
-      </c>
-      <c r="B58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C58">
-        <v>1000</v>
-      </c>
-      <c r="D58">
-        <v>11830</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>-90</v>
-      </c>
-      <c r="I58">
-        <v>9.84</v>
-      </c>
-      <c r="J58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>362</v>
-      </c>
-      <c r="B59" t="s">
-        <v>386</v>
-      </c>
-      <c r="C59">
-        <v>827</v>
-      </c>
-      <c r="D59">
-        <v>11528.38</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>21.01</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60">
-        <v>100</v>
-      </c>
-      <c r="D60">
-        <v>10290</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>-99.5</v>
-      </c>
-      <c r="I60">
-        <v>27.04</v>
-      </c>
-      <c r="J60" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61">
-        <v>1000</v>
-      </c>
-      <c r="D61">
-        <v>6060</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>-99.95999999999999</v>
-      </c>
-      <c r="I61">
-        <v>-3.66</v>
-      </c>
-      <c r="J61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62">
-        <v>1000</v>
-      </c>
-      <c r="D62">
-        <v>5330</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>17.14</v>
-      </c>
-      <c r="J62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>37318043</v>
-      </c>
-      <c r="D63">
-        <v>432428525.1</v>
-      </c>
-      <c r="E63">
-        <v>100</v>
-      </c>
-      <c r="F63">
-        <v>93.87</v>
       </c>
     </row>
   </sheetData>
